--- a/Notas.X/preescalas.xlsx
+++ b/Notas.X/preescalas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andressaldana/GoogleDrive/6o semestre ESCOM/Microcontroladores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliot\Documents\Github\Microcontroladores\Notas.X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2628BFF-8841-2F44-91C1-E9A1711D0CF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{2B65855F-A4B7-7C42-AFA7-DF3D15243391}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,16 +429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD22110C-7224-CC40-AF1A-9B96B1B496C2}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -465,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -498,28 +497,28 @@
         <v>1866.0278615089276</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B5" si="0">(1843200/A3)/523.25113</f>
+        <f t="shared" ref="B3:B6" si="0">(1843200/A3)/523.25113</f>
         <v>440.32394158422557</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C5" si="1">(1843200/A3)/587.329536</f>
+        <f t="shared" ref="C3:C6" si="1">(1843200/A3)/587.329536</f>
         <v>392.28403456283871</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D5" si="2">(1843200/A3)/659.255114</f>
+        <f t="shared" ref="D3:D6" si="2">(1843200/A3)/659.255114</f>
         <v>349.48534354486628</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E5" si="3">(1843200/A3)/698.456462</f>
+        <f t="shared" ref="E3:E6" si="3">(1843200/A3)/698.456462</f>
         <v>329.87023892693259</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F5" si="4">(1843200/A3)/783.990872</f>
+        <f t="shared" ref="F3:F6" si="4">(1843200/A3)/783.990872</f>
         <v>293.88097263458957</v>
       </c>
       <c r="G3" s="3">
@@ -527,11 +526,11 @@
         <v>261.81818181818181</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H5" si="6">(1843200/A3)/987.766602</f>
+        <f t="shared" ref="H3:H6" si="6">(1843200/A3)/987.766602</f>
         <v>233.25348268861595</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>64</v>
       </c>
@@ -564,7 +563,7 @@
         <v>29.156685336076993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>256</v>
       </c>
@@ -595,6 +594,26 @@
       <c r="H5" s="2">
         <f t="shared" si="6"/>
         <v>7.2891713340192483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
